--- a/biology/Médecine/Nœud_lymphatique_supratrochléaire/Nœud_lymphatique_supratrochléaire.xlsx
+++ b/biology/Médecine/Nœud_lymphatique_supratrochléaire/Nœud_lymphatique_supratrochléaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C5%93ud_lymphatique_supratrochl%C3%A9aire</t>
+          <t>Nœud_lymphatique_supratrochléaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nœuds lymphatiques supratrochléaires (ou ganglions lymphatiques cubitaux supérieurs) sont des nœuds lymphatiques profonds du bras faisant partie des nœuds lymphatiques cubitaux.
 Ils sont situés au niveau du pli du coude à l'extrémité proximale de l'artère ulnaire, souvent à l'arrière de celle-ci.
